--- a/TESTE ATUALIZADO/k.xlsx
+++ b/TESTE ATUALIZADO/k.xlsx
@@ -896,22 +896,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>314.1592653589793</v>
+        <v>4935730799.041311</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-325758232.7367263</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-1085860.775789088</v>
       </c>
       <c r="D2" t="n">
-        <v>-314.1592653589793</v>
+        <v>-4935730799.041311</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1357,22 +1357,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-325758232.7367264</v>
       </c>
       <c r="B3" t="n">
-        <v>785398.2100725394</v>
+        <v>490752662.304628</v>
       </c>
       <c r="C3" t="n">
-        <v>7853.981765622174</v>
+        <v>2801614.815456337</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>325758232.7367264</v>
       </c>
       <c r="E3" t="n">
-        <v>-785398.1472406861</v>
+        <v>-95894198.38132323</v>
       </c>
       <c r="F3" t="n">
-        <v>7853.981556182667</v>
+        <v>1485419.935711988</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>-1085860.775789088</v>
       </c>
       <c r="B4" t="n">
-        <v>7853.981765622175</v>
+        <v>2801614.815456337</v>
       </c>
       <c r="C4" t="n">
-        <v>104.7197555983787</v>
+        <v>29332.34303432295</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="E4" t="n">
-        <v>-7853.981556182664</v>
+        <v>-1485419.935711988</v>
       </c>
       <c r="F4" t="n">
-        <v>52.35987720079073</v>
+        <v>10905.61471789191</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2279,31 +2279,31 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-314.1592653589793</v>
+        <v>-4935730799.041311</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>325758232.7367263</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="D5" t="n">
-        <v>628.3185307179587</v>
+        <v>9871461598.082623</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.192092895507812e-07</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-2171721.551578176</v>
       </c>
       <c r="G5" t="n">
-        <v>-314.1592653589793</v>
+        <v>-4935730799.041311</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -2740,31 +2740,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="B6" t="n">
-        <v>-785398.1472406861</v>
+        <v>-95894198.38132325</v>
       </c>
       <c r="C6" t="n">
-        <v>-7853.981556182664</v>
+        <v>-1485419.935711988</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="E6" t="n">
-        <v>1570796.420145079</v>
+        <v>981505324.609256</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.818989403545856e-12</v>
+        <v>-4.656612873077393e-10</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>325758232.7367264</v>
       </c>
       <c r="H6" t="n">
-        <v>-785398.1472406861</v>
+        <v>-95894198.38132323</v>
       </c>
       <c r="I6" t="n">
-        <v>7853.981556182667</v>
+        <v>1485419.935711988</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -3201,31 +3201,31 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="B7" t="n">
-        <v>7853.981556182667</v>
+        <v>1485419.935711988</v>
       </c>
       <c r="C7" t="n">
-        <v>52.35987720079073</v>
+        <v>10905.61471789191</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-2171721.551578176</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>-4.656612873077393e-10</v>
       </c>
       <c r="F7" t="n">
-        <v>209.4395111967573</v>
+        <v>58664.6860686459</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="H7" t="n">
-        <v>-7853.981556182664</v>
+        <v>-1485419.935711988</v>
       </c>
       <c r="I7" t="n">
-        <v>52.35987720079073</v>
+        <v>10905.61471789191</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -3671,31 +3671,31 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-314.1592653589793</v>
+        <v>-4935730799.041311</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>325758232.7367263</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="G8" t="n">
-        <v>628.3185307179587</v>
+        <v>9871461598.082623</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-2171721.551578175</v>
       </c>
       <c r="J8" t="n">
-        <v>-314.1592653589793</v>
+        <v>-4935730799.041311</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-325758232.7367264</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -4132,31 +4132,31 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="E9" t="n">
-        <v>-785398.1472406861</v>
+        <v>-95894198.38132325</v>
       </c>
       <c r="F9" t="n">
-        <v>-7853.981556182664</v>
+        <v>-1485419.935711988</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="H9" t="n">
-        <v>1570796.420145079</v>
+        <v>981505324.6092561</v>
       </c>
       <c r="I9" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-4.656612873077393e-10</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>325758232.7367264</v>
       </c>
       <c r="K9" t="n">
-        <v>-785398.1472406866</v>
+        <v>-95894198.3813234</v>
       </c>
       <c r="L9" t="n">
-        <v>7853.981556182669</v>
+        <v>1485419.935711989</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -4593,31 +4593,31 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="E10" t="n">
-        <v>7853.981556182667</v>
+        <v>1485419.935711988</v>
       </c>
       <c r="F10" t="n">
-        <v>52.35987720079073</v>
+        <v>10905.61471789191</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-2171721.551578176</v>
       </c>
       <c r="H10" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-4.656612873077393e-10</v>
       </c>
       <c r="I10" t="n">
-        <v>209.4395111967573</v>
+        <v>58664.68606864591</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="K10" t="n">
-        <v>-7853.981556182668</v>
+        <v>-1485419.935711989</v>
       </c>
       <c r="L10" t="n">
-        <v>52.35987720079074</v>
+        <v>10905.61471789191</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -5063,31 +5063,31 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-314.1592653589793</v>
+        <v>-4935730799.041311</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325758232.7367264</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="J11" t="n">
-        <v>628.3185307179585</v>
+        <v>9871461598.082619</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-2171721.551578176</v>
       </c>
       <c r="M11" t="n">
-        <v>-314.1592653589793</v>
+        <v>-4935730799.041307</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -5524,31 +5524,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-325758232.7367264</v>
       </c>
       <c r="H12" t="n">
-        <v>-785398.1472406866</v>
+        <v>-95894198.3813234</v>
       </c>
       <c r="I12" t="n">
-        <v>-7853.981556182668</v>
+        <v>-1485419.935711989</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="K12" t="n">
-        <v>1570796.420145078</v>
+        <v>981505324.6092559</v>
       </c>
       <c r="L12" t="n">
-        <v>-9.094947017729282e-12</v>
+        <v>-1.862645149230957e-09</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>325758232.7367263</v>
       </c>
       <c r="N12" t="n">
-        <v>-785398.1472406855</v>
+        <v>-95894198.38132311</v>
       </c>
       <c r="O12" t="n">
-        <v>7853.981556182662</v>
+        <v>1485419.935711987</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -5985,31 +5985,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="H13" t="n">
-        <v>7853.981556182669</v>
+        <v>1485419.935711989</v>
       </c>
       <c r="I13" t="n">
-        <v>52.35987720079074</v>
+        <v>10905.61471789191</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-2171721.551578176</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.000444171950221e-11</v>
+        <v>-1.862645149230957e-09</v>
       </c>
       <c r="L13" t="n">
-        <v>209.4395111967573</v>
+        <v>58664.6860686459</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="N13" t="n">
-        <v>-7853.98155618266</v>
+        <v>-1485419.935711986</v>
       </c>
       <c r="O13" t="n">
-        <v>52.35987720079071</v>
+        <v>10905.6147178919</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -6455,31 +6455,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-314.1592653589793</v>
+        <v>-4935730799.041307</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>325758232.7367263</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="M14" t="n">
-        <v>628.3185307179585</v>
+        <v>9871461598.082615</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1.192092895507812e-07</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>-2171721.551578177</v>
       </c>
       <c r="P14" t="n">
-        <v>-314.1592653589793</v>
+        <v>-4935730799.041307</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -6916,31 +6916,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-325758232.7367263</v>
       </c>
       <c r="K15" t="n">
-        <v>-785398.1472406855</v>
+        <v>-95894198.38132311</v>
       </c>
       <c r="L15" t="n">
-        <v>-7853.98155618266</v>
+        <v>-1485419.935711986</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1570796.420145077</v>
+        <v>981505324.6092558</v>
       </c>
       <c r="O15" t="n">
-        <v>-2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>325758232.7367263</v>
       </c>
       <c r="Q15" t="n">
-        <v>-785398.1472406855</v>
+        <v>-95894198.38132311</v>
       </c>
       <c r="R15" t="n">
-        <v>7853.981556182662</v>
+        <v>1485419.935711987</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -7377,31 +7377,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="K16" t="n">
-        <v>7853.981556182662</v>
+        <v>1485419.935711987</v>
       </c>
       <c r="L16" t="n">
-        <v>52.35987720079071</v>
+        <v>10905.6147178919</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-2171721.551578177</v>
       </c>
       <c r="N16" t="n">
-        <v>-2.728484105318785e-12</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>209.4395111967573</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="Q16" t="n">
-        <v>-7853.98155618266</v>
+        <v>-1485419.935711986</v>
       </c>
       <c r="R16" t="n">
-        <v>52.35987720079071</v>
+        <v>10905.6147178919</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -7847,31 +7847,31 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-314.1592653589793</v>
+        <v>-4935730799.041307</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>325758232.7367263</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="P17" t="n">
-        <v>628.3185307179588</v>
+        <v>9871461598.082621</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>-2171721.551578176</v>
       </c>
       <c r="S17" t="n">
-        <v>-314.1592653589796</v>
+        <v>-4935730799.041313</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1085860.775789087</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -8308,31 +8308,31 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>-325758232.7367263</v>
       </c>
       <c r="N18" t="n">
-        <v>-785398.1472406855</v>
+        <v>-95894198.38132311</v>
       </c>
       <c r="O18" t="n">
-        <v>-7853.98155618266</v>
+        <v>-1485419.935711986</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>-1.192092895507812e-07</v>
       </c>
       <c r="Q18" t="n">
-        <v>1570796.420145079</v>
+        <v>981505324.609256</v>
       </c>
       <c r="R18" t="n">
-        <v>1.000444171950221e-11</v>
+        <v>1.862645149230957e-09</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="T18" t="n">
-        <v>-785398.1472406873</v>
+        <v>-95894198.38132364</v>
       </c>
       <c r="U18" t="n">
-        <v>7853.981556182673</v>
+        <v>1485419.93571199</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -8769,31 +8769,31 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="N19" t="n">
-        <v>7853.981556182662</v>
+        <v>1485419.935711987</v>
       </c>
       <c r="O19" t="n">
-        <v>52.35987720079071</v>
+        <v>10905.6147178919</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-2171721.551578176</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.000444171950221e-11</v>
+        <v>1.862645149230957e-09</v>
       </c>
       <c r="R19" t="n">
-        <v>209.4395111967573</v>
+        <v>58664.6860686459</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="T19" t="n">
-        <v>-7853.981556182673</v>
+        <v>-1485419.93571199</v>
       </c>
       <c r="U19" t="n">
-        <v>52.35987720079076</v>
+        <v>10905.61471789191</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -9239,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-314.1592653589796</v>
+        <v>-4935730799.041313</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1085860.775789087</v>
       </c>
       <c r="S20" t="n">
-        <v>628.3185307179587</v>
+        <v>9871461598.082619</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-2171721.551578176</v>
       </c>
       <c r="V20" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -9700,31 +9700,31 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="Q21" t="n">
-        <v>-785398.1472406873</v>
+        <v>-95894198.38132364</v>
       </c>
       <c r="R21" t="n">
-        <v>-7853.981556182673</v>
+        <v>-1485419.93571199</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="T21" t="n">
-        <v>1570796.420145077</v>
+        <v>981505324.6092558</v>
       </c>
       <c r="U21" t="n">
-        <v>-2.273736754432321e-11</v>
+        <v>-3.259629011154175e-09</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="W21" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="X21" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -10161,31 +10161,31 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="Q22" t="n">
-        <v>7853.981556182673</v>
+        <v>1485419.93571199</v>
       </c>
       <c r="R22" t="n">
-        <v>52.35987720079076</v>
+        <v>10905.61471789192</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-2171721.551578177</v>
       </c>
       <c r="T22" t="n">
-        <v>-2.273736754432321e-11</v>
+        <v>-3.259629011154175e-09</v>
       </c>
       <c r="U22" t="n">
-        <v>209.4395111967573</v>
+        <v>58664.6860686459</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="W22" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="X22" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -10631,31 +10631,31 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="V23" t="n">
-        <v>628.3185307179587</v>
+        <v>9871461598.082619</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>-2171721.551578177</v>
       </c>
       <c r="Y23" t="n">
-        <v>-314.1592653589796</v>
+        <v>-4935730799.041313</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1085860.775789087</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
@@ -11092,31 +11092,31 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="T24" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="U24" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="W24" t="n">
-        <v>1570796.420145077</v>
+        <v>981505324.6092558</v>
       </c>
       <c r="X24" t="n">
-        <v>2.000888343900442e-11</v>
+        <v>3.259629011154175e-09</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="Z24" t="n">
-        <v>-785398.1472406873</v>
+        <v>-95894198.38132364</v>
       </c>
       <c r="AA24" t="n">
-        <v>7853.981556182673</v>
+        <v>1485419.93571199</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
@@ -11553,31 +11553,31 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="T25" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="U25" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>-2171721.551578177</v>
       </c>
       <c r="W25" t="n">
-        <v>2.091837814077735e-11</v>
+        <v>3.259629011154175e-09</v>
       </c>
       <c r="X25" t="n">
-        <v>209.4395111967573</v>
+        <v>58664.6860686459</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="Z25" t="n">
-        <v>-7853.981556182673</v>
+        <v>-1485419.93571199</v>
       </c>
       <c r="AA25" t="n">
-        <v>52.35987720079076</v>
+        <v>10905.61471789191</v>
       </c>
       <c r="AB25" t="n">
         <v>0</v>
@@ -12023,31 +12023,31 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-314.1592653589796</v>
+        <v>-4935730799.041313</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1085860.775789087</v>
       </c>
       <c r="Y26" t="n">
-        <v>628.3185307179591</v>
+        <v>9871461598.082626</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>-2171721.551578174</v>
       </c>
       <c r="AB26" t="n">
-        <v>-314.1592653589796</v>
+        <v>-4935730799.041313</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>1085860.775789087</v>
       </c>
       <c r="AE26" t="n">
         <v>0</v>
@@ -12484,31 +12484,31 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="W27" t="n">
-        <v>-785398.1472406873</v>
+        <v>-95894198.38132364</v>
       </c>
       <c r="X27" t="n">
-        <v>-7853.981556182673</v>
+        <v>-1485419.93571199</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="Z27" t="n">
-        <v>1570796.42014508</v>
+        <v>981505324.6092561</v>
       </c>
       <c r="AA27" t="n">
-        <v>-1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="AC27" t="n">
-        <v>-785398.1472406873</v>
+        <v>-95894198.38132364</v>
       </c>
       <c r="AD27" t="n">
-        <v>7853.981556182673</v>
+        <v>1485419.93571199</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
@@ -12945,31 +12945,31 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="W28" t="n">
-        <v>7853.981556182673</v>
+        <v>1485419.93571199</v>
       </c>
       <c r="X28" t="n">
-        <v>52.35987720079076</v>
+        <v>10905.61471789192</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>-2171721.551578175</v>
       </c>
       <c r="Z28" t="n">
-        <v>-1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>209.4395111967574</v>
+        <v>58664.68606864592</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="AC28" t="n">
-        <v>-7853.981556182673</v>
+        <v>-1485419.93571199</v>
       </c>
       <c r="AD28" t="n">
-        <v>52.35987720079076</v>
+        <v>10905.61471789191</v>
       </c>
       <c r="AE28" t="n">
         <v>0</v>
@@ -13415,31 +13415,31 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-314.1592653589796</v>
+        <v>-4935730799.041313</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1085860.775789087</v>
       </c>
       <c r="AB29" t="n">
-        <v>628.3185307179587</v>
+        <v>9871461598.082619</v>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>-2171721.551578176</v>
       </c>
       <c r="AE29" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="AH29" t="n">
         <v>0</v>
@@ -13876,31 +13876,31 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="Z30" t="n">
-        <v>-785398.1472406873</v>
+        <v>-95894198.38132364</v>
       </c>
       <c r="AA30" t="n">
-        <v>-7853.981556182673</v>
+        <v>-1485419.93571199</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="AC30" t="n">
-        <v>1570796.420145077</v>
+        <v>981505324.6092558</v>
       </c>
       <c r="AD30" t="n">
-        <v>-2.273736754432321e-11</v>
+        <v>-3.259629011154175e-09</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="AF30" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="AG30" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="AH30" t="n">
         <v>0</v>
@@ -14337,31 +14337,31 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="Z31" t="n">
-        <v>7853.981556182673</v>
+        <v>1485419.93571199</v>
       </c>
       <c r="AA31" t="n">
-        <v>52.35987720079076</v>
+        <v>10905.61471789192</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>-2171721.551578177</v>
       </c>
       <c r="AC31" t="n">
-        <v>-2.273736754432321e-11</v>
+        <v>-3.259629011154175e-09</v>
       </c>
       <c r="AD31" t="n">
-        <v>209.4395111967573</v>
+        <v>58664.6860686459</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="AF31" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="AG31" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="AH31" t="n">
         <v>0</v>
@@ -14807,31 +14807,31 @@
         <v>0</v>
       </c>
       <c r="AB32" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="AE32" t="n">
-        <v>628.3185307179587</v>
+        <v>9871461598.082619</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>-2171721.551578177</v>
       </c>
       <c r="AH32" t="n">
-        <v>-314.1592653589796</v>
+        <v>-4935730799.041313</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0</v>
+        <v>1085860.775789087</v>
       </c>
       <c r="AK32" t="n">
         <v>0</v>
@@ -15268,31 +15268,31 @@
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="AC33" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="AD33" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="AF33" t="n">
-        <v>1570796.420145077</v>
+        <v>981505324.6092558</v>
       </c>
       <c r="AG33" t="n">
-        <v>2.000888343900442e-11</v>
+        <v>3.259629011154175e-09</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="AI33" t="n">
-        <v>-785398.1472406873</v>
+        <v>-95894198.38132364</v>
       </c>
       <c r="AJ33" t="n">
-        <v>7853.981556182673</v>
+        <v>1485419.93571199</v>
       </c>
       <c r="AK33" t="n">
         <v>0</v>
@@ -15729,31 +15729,31 @@
         <v>0</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="AC34" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="AD34" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>-2171721.551578177</v>
       </c>
       <c r="AF34" t="n">
-        <v>2.091837814077735e-11</v>
+        <v>3.259629011154175e-09</v>
       </c>
       <c r="AG34" t="n">
-        <v>209.4395111967573</v>
+        <v>58664.6860686459</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="AI34" t="n">
-        <v>-7853.981556182673</v>
+        <v>-1485419.93571199</v>
       </c>
       <c r="AJ34" t="n">
-        <v>52.35987720079076</v>
+        <v>10905.61471789191</v>
       </c>
       <c r="AK34" t="n">
         <v>0</v>
@@ -16199,31 +16199,31 @@
         <v>0</v>
       </c>
       <c r="AE35" t="n">
-        <v>-314.1592653589796</v>
+        <v>-4935730799.041313</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>1085860.775789087</v>
       </c>
       <c r="AH35" t="n">
-        <v>628.3185307179591</v>
+        <v>9871461598.082626</v>
       </c>
       <c r="AI35" t="n">
         <v>0</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>-2171721.551578174</v>
       </c>
       <c r="AK35" t="n">
-        <v>-314.1592653589796</v>
+        <v>-4935730799.041313</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>1085860.775789087</v>
       </c>
       <c r="AN35" t="n">
         <v>0</v>
@@ -16660,31 +16660,31 @@
         <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="AF36" t="n">
-        <v>-785398.1472406873</v>
+        <v>-95894198.38132364</v>
       </c>
       <c r="AG36" t="n">
-        <v>-7853.981556182673</v>
+        <v>-1485419.93571199</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="AI36" t="n">
-        <v>1570796.42014508</v>
+        <v>981505324.6092561</v>
       </c>
       <c r="AJ36" t="n">
-        <v>-1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="AK36" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="AL36" t="n">
-        <v>-785398.1472406873</v>
+        <v>-95894198.38132364</v>
       </c>
       <c r="AM36" t="n">
-        <v>7853.981556182673</v>
+        <v>1485419.93571199</v>
       </c>
       <c r="AN36" t="n">
         <v>0</v>
@@ -17121,31 +17121,31 @@
         <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="AF37" t="n">
-        <v>7853.981556182673</v>
+        <v>1485419.93571199</v>
       </c>
       <c r="AG37" t="n">
-        <v>52.35987720079076</v>
+        <v>10905.61471789192</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>-2171721.551578175</v>
       </c>
       <c r="AI37" t="n">
-        <v>-1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="AJ37" t="n">
-        <v>209.4395111967574</v>
+        <v>58664.68606864592</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="AL37" t="n">
-        <v>-7853.981556182673</v>
+        <v>-1485419.93571199</v>
       </c>
       <c r="AM37" t="n">
-        <v>52.35987720079076</v>
+        <v>10905.61471789191</v>
       </c>
       <c r="AN37" t="n">
         <v>0</v>
@@ -17591,31 +17591,31 @@
         <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>-314.1592653589796</v>
+        <v>-4935730799.041313</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>1085860.775789087</v>
       </c>
       <c r="AK38" t="n">
-        <v>628.3185307179587</v>
+        <v>9871461598.082619</v>
       </c>
       <c r="AL38" t="n">
         <v>0</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>-2171721.551578176</v>
       </c>
       <c r="AN38" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="AO38" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="AP38" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="AQ38" t="n">
         <v>0</v>
@@ -18052,31 +18052,31 @@
         <v>0</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="AI39" t="n">
-        <v>-785398.1472406873</v>
+        <v>-95894198.38132364</v>
       </c>
       <c r="AJ39" t="n">
-        <v>-7853.981556182673</v>
+        <v>-1485419.93571199</v>
       </c>
       <c r="AK39" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="AL39" t="n">
-        <v>1570796.420145077</v>
+        <v>981505324.6092558</v>
       </c>
       <c r="AM39" t="n">
-        <v>-2.273736754432321e-11</v>
+        <v>-3.259629011154175e-09</v>
       </c>
       <c r="AN39" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="AO39" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="AP39" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="AQ39" t="n">
         <v>0</v>
@@ -18513,31 +18513,31 @@
         <v>0</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>1085860.775789088</v>
       </c>
       <c r="AI40" t="n">
-        <v>7853.981556182673</v>
+        <v>1485419.93571199</v>
       </c>
       <c r="AJ40" t="n">
-        <v>52.35987720079076</v>
+        <v>10905.61471789192</v>
       </c>
       <c r="AK40" t="n">
-        <v>0</v>
+        <v>-2171721.551578177</v>
       </c>
       <c r="AL40" t="n">
-        <v>-2.273736754432321e-11</v>
+        <v>-3.259629011154175e-09</v>
       </c>
       <c r="AM40" t="n">
-        <v>209.4395111967573</v>
+        <v>58664.6860686459</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="AO40" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="AP40" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="AQ40" t="n">
         <v>0</v>
@@ -18983,31 +18983,31 @@
         <v>0</v>
       </c>
       <c r="AK41" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="AL41" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="AM41" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="AN41" t="n">
-        <v>628.3185307179582</v>
+        <v>9871461598.082613</v>
       </c>
       <c r="AO41" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="AP41" t="n">
-        <v>0</v>
+        <v>-2171721.551578179</v>
       </c>
       <c r="AQ41" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="AR41" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="AS41" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="AT41" t="n">
         <v>0</v>
@@ -19444,31 +19444,31 @@
         <v>0</v>
       </c>
       <c r="AK42" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="AL42" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="AM42" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="AN42" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="AO42" t="n">
-        <v>1570796.420145074</v>
+        <v>981505324.6092554</v>
       </c>
       <c r="AP42" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="AR42" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="AS42" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="AT42" t="n">
         <v>0</v>
@@ -19905,31 +19905,31 @@
         <v>0</v>
       </c>
       <c r="AK43" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="AL43" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="AM43" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="AN43" t="n">
-        <v>0</v>
+        <v>-2171721.551578178</v>
       </c>
       <c r="AO43" t="n">
         <v>0</v>
       </c>
       <c r="AP43" t="n">
-        <v>209.4395111967571</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="AR43" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="AS43" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="AT43" t="n">
         <v>0</v>
@@ -20375,31 +20375,31 @@
         <v>0</v>
       </c>
       <c r="AN44" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="AO44" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="AP44" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="AQ44" t="n">
-        <v>628.318530717959</v>
+        <v>9871461598.082624</v>
       </c>
       <c r="AR44" t="n">
-        <v>0</v>
+        <v>1.192092895507812e-07</v>
       </c>
       <c r="AS44" t="n">
-        <v>0</v>
+        <v>-2171721.551578175</v>
       </c>
       <c r="AT44" t="n">
-        <v>-314.1592653589798</v>
+        <v>-4935730799.041318</v>
       </c>
       <c r="AU44" t="n">
-        <v>0</v>
+        <v>-325758232.7367264</v>
       </c>
       <c r="AV44" t="n">
-        <v>0</v>
+        <v>1085860.775789086</v>
       </c>
       <c r="AW44" t="n">
         <v>0</v>
@@ -20836,31 +20836,31 @@
         <v>0</v>
       </c>
       <c r="AN45" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="AO45" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="AP45" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0</v>
+        <v>1.192092895507812e-07</v>
       </c>
       <c r="AR45" t="n">
-        <v>1570796.420145081</v>
+        <v>981505324.6092563</v>
       </c>
       <c r="AS45" t="n">
-        <v>4.18367562815547e-11</v>
+        <v>6.05359673500061e-09</v>
       </c>
       <c r="AT45" t="n">
-        <v>0</v>
+        <v>325758232.7367264</v>
       </c>
       <c r="AU45" t="n">
-        <v>-785398.1472406905</v>
+        <v>-95894198.38132456</v>
       </c>
       <c r="AV45" t="n">
-        <v>7853.981556182696</v>
+        <v>1485419.935711998</v>
       </c>
       <c r="AW45" t="n">
         <v>0</v>
@@ -21297,31 +21297,31 @@
         <v>0</v>
       </c>
       <c r="AN46" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="AO46" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="AP46" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0</v>
+        <v>-2171721.551578175</v>
       </c>
       <c r="AR46" t="n">
-        <v>4.18367562815547e-11</v>
+        <v>6.05359673500061e-09</v>
       </c>
       <c r="AS46" t="n">
-        <v>209.4395111967574</v>
+        <v>58664.68606864593</v>
       </c>
       <c r="AT46" t="n">
-        <v>0</v>
+        <v>1085860.775789086</v>
       </c>
       <c r="AU46" t="n">
-        <v>-7853.981556182694</v>
+        <v>-1485419.935711997</v>
       </c>
       <c r="AV46" t="n">
-        <v>52.35987720079083</v>
+        <v>10905.61471789195</v>
       </c>
       <c r="AW46" t="n">
         <v>0</v>
@@ -21767,31 +21767,31 @@
         <v>0</v>
       </c>
       <c r="AQ47" t="n">
-        <v>-314.1592653589798</v>
+        <v>-4935730799.041318</v>
       </c>
       <c r="AR47" t="n">
-        <v>0</v>
+        <v>325758232.7367264</v>
       </c>
       <c r="AS47" t="n">
-        <v>0</v>
+        <v>1085860.775789086</v>
       </c>
       <c r="AT47" t="n">
-        <v>628.318530717959</v>
+        <v>9871461598.082624</v>
       </c>
       <c r="AU47" t="n">
-        <v>0</v>
+        <v>-5.960464477539062e-08</v>
       </c>
       <c r="AV47" t="n">
-        <v>0</v>
+        <v>-2171721.551578175</v>
       </c>
       <c r="AW47" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="AX47" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="AY47" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="AZ47" t="n">
         <v>0</v>
@@ -22228,31 +22228,31 @@
         <v>0</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0</v>
+        <v>-325758232.7367264</v>
       </c>
       <c r="AR48" t="n">
-        <v>-785398.1472406905</v>
+        <v>-95894198.38132456</v>
       </c>
       <c r="AS48" t="n">
-        <v>-7853.981556182694</v>
+        <v>-1485419.935711997</v>
       </c>
       <c r="AT48" t="n">
-        <v>0</v>
+        <v>-5.960464477539062e-08</v>
       </c>
       <c r="AU48" t="n">
-        <v>1570796.420145081</v>
+        <v>981505324.6092564</v>
       </c>
       <c r="AV48" t="n">
-        <v>-4.365574568510056e-11</v>
+        <v>-6.51925802230835e-09</v>
       </c>
       <c r="AW48" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="AX48" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="AY48" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="AZ48" t="n">
         <v>0</v>
@@ -22689,31 +22689,31 @@
         <v>0</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0</v>
+        <v>1085860.775789086</v>
       </c>
       <c r="AR49" t="n">
-        <v>7853.981556182696</v>
+        <v>1485419.935711997</v>
       </c>
       <c r="AS49" t="n">
-        <v>52.35987720079083</v>
+        <v>10905.61471789195</v>
       </c>
       <c r="AT49" t="n">
-        <v>0</v>
+        <v>-2171721.551578175</v>
       </c>
       <c r="AU49" t="n">
-        <v>-4.365574568510056e-11</v>
+        <v>-6.51925802230835e-09</v>
       </c>
       <c r="AV49" t="n">
-        <v>209.4395111967574</v>
+        <v>58664.68606864593</v>
       </c>
       <c r="AW49" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="AX49" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="AY49" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="AZ49" t="n">
         <v>0</v>
@@ -23159,31 +23159,31 @@
         <v>0</v>
       </c>
       <c r="AT50" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="AU50" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="AV50" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="AW50" t="n">
-        <v>628.3185307179582</v>
+        <v>9871461598.082613</v>
       </c>
       <c r="AX50" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="AY50" t="n">
-        <v>0</v>
+        <v>-2171721.551578179</v>
       </c>
       <c r="AZ50" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="BA50" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="BB50" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BC50" t="n">
         <v>0</v>
@@ -23620,31 +23620,31 @@
         <v>0</v>
       </c>
       <c r="AT51" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="AU51" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="AV51" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="AW51" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="AX51" t="n">
-        <v>1570796.420145074</v>
+        <v>981505324.6092554</v>
       </c>
       <c r="AY51" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="AZ51" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="BA51" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="BB51" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="BC51" t="n">
         <v>0</v>
@@ -24081,31 +24081,31 @@
         <v>0</v>
       </c>
       <c r="AT52" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="AU52" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="AV52" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="AW52" t="n">
-        <v>0</v>
+        <v>-2171721.551578178</v>
       </c>
       <c r="AX52" t="n">
         <v>0</v>
       </c>
       <c r="AY52" t="n">
-        <v>209.4395111967571</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="AZ52" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BA52" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="BB52" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="BC52" t="n">
         <v>0</v>
@@ -24551,31 +24551,31 @@
         <v>0</v>
       </c>
       <c r="AW53" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="AX53" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="AY53" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="AZ53" t="n">
-        <v>628.318530717959</v>
+        <v>9871461598.082624</v>
       </c>
       <c r="BA53" t="n">
-        <v>0</v>
+        <v>1.192092895507812e-07</v>
       </c>
       <c r="BB53" t="n">
-        <v>0</v>
+        <v>-2171721.551578175</v>
       </c>
       <c r="BC53" t="n">
-        <v>-314.1592653589798</v>
+        <v>-4935730799.041318</v>
       </c>
       <c r="BD53" t="n">
-        <v>0</v>
+        <v>-325758232.7367264</v>
       </c>
       <c r="BE53" t="n">
-        <v>0</v>
+        <v>1085860.775789086</v>
       </c>
       <c r="BF53" t="n">
         <v>0</v>
@@ -25012,31 +25012,31 @@
         <v>0</v>
       </c>
       <c r="AW54" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="AX54" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="AY54" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="AZ54" t="n">
-        <v>0</v>
+        <v>1.192092895507812e-07</v>
       </c>
       <c r="BA54" t="n">
-        <v>1570796.420145081</v>
+        <v>981505324.6092563</v>
       </c>
       <c r="BB54" t="n">
-        <v>4.18367562815547e-11</v>
+        <v>6.05359673500061e-09</v>
       </c>
       <c r="BC54" t="n">
-        <v>0</v>
+        <v>325758232.7367264</v>
       </c>
       <c r="BD54" t="n">
-        <v>-785398.1472406905</v>
+        <v>-95894198.38132456</v>
       </c>
       <c r="BE54" t="n">
-        <v>7853.981556182696</v>
+        <v>1485419.935711998</v>
       </c>
       <c r="BF54" t="n">
         <v>0</v>
@@ -25473,31 +25473,31 @@
         <v>0</v>
       </c>
       <c r="AW55" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="AX55" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="AY55" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="AZ55" t="n">
-        <v>0</v>
+        <v>-2171721.551578175</v>
       </c>
       <c r="BA55" t="n">
-        <v>4.18367562815547e-11</v>
+        <v>6.05359673500061e-09</v>
       </c>
       <c r="BB55" t="n">
-        <v>209.4395111967574</v>
+        <v>58664.68606864593</v>
       </c>
       <c r="BC55" t="n">
-        <v>0</v>
+        <v>1085860.775789086</v>
       </c>
       <c r="BD55" t="n">
-        <v>-7853.981556182694</v>
+        <v>-1485419.935711997</v>
       </c>
       <c r="BE55" t="n">
-        <v>52.35987720079083</v>
+        <v>10905.61471789195</v>
       </c>
       <c r="BF55" t="n">
         <v>0</v>
@@ -25943,31 +25943,31 @@
         <v>0</v>
       </c>
       <c r="AZ56" t="n">
-        <v>-314.1592653589798</v>
+        <v>-4935730799.041318</v>
       </c>
       <c r="BA56" t="n">
-        <v>0</v>
+        <v>325758232.7367264</v>
       </c>
       <c r="BB56" t="n">
-        <v>0</v>
+        <v>1085860.775789086</v>
       </c>
       <c r="BC56" t="n">
-        <v>628.318530717959</v>
+        <v>9871461598.082624</v>
       </c>
       <c r="BD56" t="n">
-        <v>0</v>
+        <v>-5.960464477539062e-08</v>
       </c>
       <c r="BE56" t="n">
-        <v>0</v>
+        <v>-2171721.551578175</v>
       </c>
       <c r="BF56" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="BG56" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="BH56" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BI56" t="n">
         <v>0</v>
@@ -26404,31 +26404,31 @@
         <v>0</v>
       </c>
       <c r="AZ57" t="n">
-        <v>0</v>
+        <v>-325758232.7367264</v>
       </c>
       <c r="BA57" t="n">
-        <v>-785398.1472406905</v>
+        <v>-95894198.38132456</v>
       </c>
       <c r="BB57" t="n">
-        <v>-7853.981556182694</v>
+        <v>-1485419.935711997</v>
       </c>
       <c r="BC57" t="n">
-        <v>0</v>
+        <v>-5.960464477539062e-08</v>
       </c>
       <c r="BD57" t="n">
-        <v>1570796.420145081</v>
+        <v>981505324.6092564</v>
       </c>
       <c r="BE57" t="n">
-        <v>-4.365574568510056e-11</v>
+        <v>-6.51925802230835e-09</v>
       </c>
       <c r="BF57" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="BG57" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="BH57" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="BI57" t="n">
         <v>0</v>
@@ -26865,31 +26865,31 @@
         <v>0</v>
       </c>
       <c r="AZ58" t="n">
-        <v>0</v>
+        <v>1085860.775789086</v>
       </c>
       <c r="BA58" t="n">
-        <v>7853.981556182696</v>
+        <v>1485419.935711997</v>
       </c>
       <c r="BB58" t="n">
-        <v>52.35987720079083</v>
+        <v>10905.61471789195</v>
       </c>
       <c r="BC58" t="n">
-        <v>0</v>
+        <v>-2171721.551578175</v>
       </c>
       <c r="BD58" t="n">
-        <v>-4.365574568510056e-11</v>
+        <v>-6.51925802230835e-09</v>
       </c>
       <c r="BE58" t="n">
-        <v>209.4395111967574</v>
+        <v>58664.68606864593</v>
       </c>
       <c r="BF58" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BG58" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="BH58" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="BI58" t="n">
         <v>0</v>
@@ -27335,31 +27335,31 @@
         <v>0</v>
       </c>
       <c r="BC59" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="BD59" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="BE59" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BF59" t="n">
-        <v>628.3185307179582</v>
+        <v>9871461598.082613</v>
       </c>
       <c r="BG59" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="BH59" t="n">
-        <v>0</v>
+        <v>-2171721.551578179</v>
       </c>
       <c r="BI59" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="BJ59" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="BK59" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BL59" t="n">
         <v>0</v>
@@ -27796,31 +27796,31 @@
         <v>0</v>
       </c>
       <c r="BC60" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="BD60" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="BE60" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="BF60" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="BG60" t="n">
-        <v>1570796.420145074</v>
+        <v>981505324.6092554</v>
       </c>
       <c r="BH60" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="BI60" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="BJ60" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="BK60" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="BL60" t="n">
         <v>0</v>
@@ -28257,31 +28257,31 @@
         <v>0</v>
       </c>
       <c r="BC61" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BD61" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="BE61" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="BF61" t="n">
-        <v>0</v>
+        <v>-2171721.551578178</v>
       </c>
       <c r="BG61" t="n">
         <v>0</v>
       </c>
       <c r="BH61" t="n">
-        <v>209.4395111967571</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="BI61" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BJ61" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="BK61" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="BL61" t="n">
         <v>0</v>
@@ -28727,31 +28727,31 @@
         <v>0</v>
       </c>
       <c r="BF62" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="BG62" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="BH62" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BI62" t="n">
-        <v>628.318530717959</v>
+        <v>9871461598.082624</v>
       </c>
       <c r="BJ62" t="n">
-        <v>0</v>
+        <v>1.192092895507812e-07</v>
       </c>
       <c r="BK62" t="n">
-        <v>0</v>
+        <v>-2171721.551578175</v>
       </c>
       <c r="BL62" t="n">
-        <v>-314.1592653589798</v>
+        <v>-4935730799.041318</v>
       </c>
       <c r="BM62" t="n">
-        <v>0</v>
+        <v>-325758232.7367264</v>
       </c>
       <c r="BN62" t="n">
-        <v>0</v>
+        <v>1085860.775789086</v>
       </c>
       <c r="BO62" t="n">
         <v>0</v>
@@ -29188,31 +29188,31 @@
         <v>0</v>
       </c>
       <c r="BF63" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="BG63" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="BH63" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="BI63" t="n">
-        <v>0</v>
+        <v>1.192092895507812e-07</v>
       </c>
       <c r="BJ63" t="n">
-        <v>1570796.420145081</v>
+        <v>981505324.6092563</v>
       </c>
       <c r="BK63" t="n">
-        <v>4.18367562815547e-11</v>
+        <v>6.05359673500061e-09</v>
       </c>
       <c r="BL63" t="n">
-        <v>0</v>
+        <v>325758232.7367264</v>
       </c>
       <c r="BM63" t="n">
-        <v>-785398.1472406905</v>
+        <v>-95894198.38132456</v>
       </c>
       <c r="BN63" t="n">
-        <v>7853.981556182696</v>
+        <v>1485419.935711998</v>
       </c>
       <c r="BO63" t="n">
         <v>0</v>
@@ -29649,31 +29649,31 @@
         <v>0</v>
       </c>
       <c r="BF64" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BG64" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="BH64" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="BI64" t="n">
-        <v>0</v>
+        <v>-2171721.551578175</v>
       </c>
       <c r="BJ64" t="n">
-        <v>4.18367562815547e-11</v>
+        <v>6.05359673500061e-09</v>
       </c>
       <c r="BK64" t="n">
-        <v>209.4395111967574</v>
+        <v>58664.68606864593</v>
       </c>
       <c r="BL64" t="n">
-        <v>0</v>
+        <v>1085860.775789086</v>
       </c>
       <c r="BM64" t="n">
-        <v>-7853.981556182694</v>
+        <v>-1485419.935711997</v>
       </c>
       <c r="BN64" t="n">
-        <v>52.35987720079083</v>
+        <v>10905.61471789195</v>
       </c>
       <c r="BO64" t="n">
         <v>0</v>
@@ -30119,31 +30119,31 @@
         <v>0</v>
       </c>
       <c r="BI65" t="n">
-        <v>-314.1592653589798</v>
+        <v>-4935730799.041318</v>
       </c>
       <c r="BJ65" t="n">
-        <v>0</v>
+        <v>325758232.7367264</v>
       </c>
       <c r="BK65" t="n">
-        <v>0</v>
+        <v>1085860.775789086</v>
       </c>
       <c r="BL65" t="n">
-        <v>628.318530717959</v>
+        <v>9871461598.082624</v>
       </c>
       <c r="BM65" t="n">
-        <v>0</v>
+        <v>-5.960464477539062e-08</v>
       </c>
       <c r="BN65" t="n">
-        <v>0</v>
+        <v>-2171721.551578175</v>
       </c>
       <c r="BO65" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="BP65" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="BQ65" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BR65" t="n">
         <v>0</v>
@@ -30580,31 +30580,31 @@
         <v>0</v>
       </c>
       <c r="BI66" t="n">
-        <v>0</v>
+        <v>-325758232.7367264</v>
       </c>
       <c r="BJ66" t="n">
-        <v>-785398.1472406905</v>
+        <v>-95894198.38132456</v>
       </c>
       <c r="BK66" t="n">
-        <v>-7853.981556182694</v>
+        <v>-1485419.935711997</v>
       </c>
       <c r="BL66" t="n">
-        <v>0</v>
+        <v>-5.960464477539062e-08</v>
       </c>
       <c r="BM66" t="n">
-        <v>1570796.420145081</v>
+        <v>981505324.6092564</v>
       </c>
       <c r="BN66" t="n">
-        <v>-4.365574568510056e-11</v>
+        <v>-6.51925802230835e-09</v>
       </c>
       <c r="BO66" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="BP66" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="BQ66" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="BR66" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="BI67" t="n">
-        <v>0</v>
+        <v>1085860.775789086</v>
       </c>
       <c r="BJ67" t="n">
-        <v>7853.981556182696</v>
+        <v>1485419.935711997</v>
       </c>
       <c r="BK67" t="n">
-        <v>52.35987720079083</v>
+        <v>10905.61471789195</v>
       </c>
       <c r="BL67" t="n">
-        <v>0</v>
+        <v>-2171721.551578175</v>
       </c>
       <c r="BM67" t="n">
-        <v>-4.365574568510056e-11</v>
+        <v>-6.51925802230835e-09</v>
       </c>
       <c r="BN67" t="n">
-        <v>209.4395111967574</v>
+        <v>58664.68606864593</v>
       </c>
       <c r="BO67" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BP67" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="BQ67" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="BR67" t="n">
         <v>0</v>
@@ -31511,31 +31511,31 @@
         <v>0</v>
       </c>
       <c r="BL68" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="BM68" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="BN68" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BO68" t="n">
-        <v>628.3185307179582</v>
+        <v>9871461598.082613</v>
       </c>
       <c r="BP68" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="BQ68" t="n">
-        <v>0</v>
+        <v>-2171721.551578179</v>
       </c>
       <c r="BR68" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="BS68" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="BT68" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BU68" t="n">
         <v>0</v>
@@ -31972,31 +31972,31 @@
         <v>0</v>
       </c>
       <c r="BL69" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="BM69" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="BN69" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="BO69" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="BP69" t="n">
-        <v>1570796.420145074</v>
+        <v>981505324.6092554</v>
       </c>
       <c r="BQ69" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="BR69" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="BS69" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="BT69" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="BU69" t="n">
         <v>0</v>
@@ -32433,31 +32433,31 @@
         <v>0</v>
       </c>
       <c r="BL70" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BM70" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="BN70" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="BO70" t="n">
-        <v>0</v>
+        <v>-2171721.551578178</v>
       </c>
       <c r="BP70" t="n">
         <v>0</v>
       </c>
       <c r="BQ70" t="n">
-        <v>209.4395111967571</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="BR70" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BS70" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="BT70" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="BU70" t="n">
         <v>0</v>
@@ -32903,31 +32903,31 @@
         <v>0</v>
       </c>
       <c r="BO71" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="BP71" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="BQ71" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BR71" t="n">
-        <v>628.318530717959</v>
+        <v>9871461598.082624</v>
       </c>
       <c r="BS71" t="n">
-        <v>0</v>
+        <v>1.192092895507812e-07</v>
       </c>
       <c r="BT71" t="n">
-        <v>0</v>
+        <v>-2171721.551578175</v>
       </c>
       <c r="BU71" t="n">
-        <v>-314.1592653589798</v>
+        <v>-4935730799.041318</v>
       </c>
       <c r="BV71" t="n">
-        <v>0</v>
+        <v>-325758232.7367264</v>
       </c>
       <c r="BW71" t="n">
-        <v>0</v>
+        <v>1085860.775789086</v>
       </c>
       <c r="BX71" t="n">
         <v>0</v>
@@ -33364,31 +33364,31 @@
         <v>0</v>
       </c>
       <c r="BO72" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="BP72" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="BQ72" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="BR72" t="n">
-        <v>0</v>
+        <v>1.192092895507812e-07</v>
       </c>
       <c r="BS72" t="n">
-        <v>1570796.420145081</v>
+        <v>981505324.6092563</v>
       </c>
       <c r="BT72" t="n">
-        <v>4.18367562815547e-11</v>
+        <v>6.05359673500061e-09</v>
       </c>
       <c r="BU72" t="n">
-        <v>0</v>
+        <v>325758232.7367264</v>
       </c>
       <c r="BV72" t="n">
-        <v>-785398.1472406905</v>
+        <v>-95894198.38132456</v>
       </c>
       <c r="BW72" t="n">
-        <v>7853.981556182696</v>
+        <v>1485419.935711998</v>
       </c>
       <c r="BX72" t="n">
         <v>0</v>
@@ -33825,31 +33825,31 @@
         <v>0</v>
       </c>
       <c r="BO73" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BP73" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="BQ73" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="BR73" t="n">
-        <v>0</v>
+        <v>-2171721.551578175</v>
       </c>
       <c r="BS73" t="n">
-        <v>4.18367562815547e-11</v>
+        <v>6.05359673500061e-09</v>
       </c>
       <c r="BT73" t="n">
-        <v>209.4395111967574</v>
+        <v>58664.68606864593</v>
       </c>
       <c r="BU73" t="n">
-        <v>0</v>
+        <v>1085860.775789086</v>
       </c>
       <c r="BV73" t="n">
-        <v>-7853.981556182694</v>
+        <v>-1485419.935711997</v>
       </c>
       <c r="BW73" t="n">
-        <v>52.35987720079083</v>
+        <v>10905.61471789195</v>
       </c>
       <c r="BX73" t="n">
         <v>0</v>
@@ -34295,31 +34295,31 @@
         <v>0</v>
       </c>
       <c r="BR74" t="n">
-        <v>-314.1592653589798</v>
+        <v>-4935730799.041318</v>
       </c>
       <c r="BS74" t="n">
-        <v>0</v>
+        <v>325758232.7367264</v>
       </c>
       <c r="BT74" t="n">
-        <v>0</v>
+        <v>1085860.775789086</v>
       </c>
       <c r="BU74" t="n">
-        <v>628.318530717959</v>
+        <v>9871461598.082624</v>
       </c>
       <c r="BV74" t="n">
-        <v>0</v>
+        <v>-5.960464477539062e-08</v>
       </c>
       <c r="BW74" t="n">
-        <v>0</v>
+        <v>-2171721.551578175</v>
       </c>
       <c r="BX74" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="BY74" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="BZ74" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CA74" t="n">
         <v>0</v>
@@ -34756,31 +34756,31 @@
         <v>0</v>
       </c>
       <c r="BR75" t="n">
-        <v>0</v>
+        <v>-325758232.7367264</v>
       </c>
       <c r="BS75" t="n">
-        <v>-785398.1472406905</v>
+        <v>-95894198.38132456</v>
       </c>
       <c r="BT75" t="n">
-        <v>-7853.981556182694</v>
+        <v>-1485419.935711997</v>
       </c>
       <c r="BU75" t="n">
-        <v>0</v>
+        <v>-5.960464477539062e-08</v>
       </c>
       <c r="BV75" t="n">
-        <v>1570796.420145081</v>
+        <v>981505324.6092564</v>
       </c>
       <c r="BW75" t="n">
-        <v>-4.365574568510056e-11</v>
+        <v>-6.51925802230835e-09</v>
       </c>
       <c r="BX75" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="BY75" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="BZ75" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="CA75" t="n">
         <v>0</v>
@@ -35217,31 +35217,31 @@
         <v>0</v>
       </c>
       <c r="BR76" t="n">
-        <v>0</v>
+        <v>1085860.775789086</v>
       </c>
       <c r="BS76" t="n">
-        <v>7853.981556182696</v>
+        <v>1485419.935711997</v>
       </c>
       <c r="BT76" t="n">
-        <v>52.35987720079083</v>
+        <v>10905.61471789195</v>
       </c>
       <c r="BU76" t="n">
-        <v>0</v>
+        <v>-2171721.551578175</v>
       </c>
       <c r="BV76" t="n">
-        <v>-4.365574568510056e-11</v>
+        <v>-6.51925802230835e-09</v>
       </c>
       <c r="BW76" t="n">
-        <v>209.4395111967574</v>
+        <v>58664.68606864593</v>
       </c>
       <c r="BX76" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BY76" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="BZ76" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="CA76" t="n">
         <v>0</v>
@@ -35687,31 +35687,31 @@
         <v>0</v>
       </c>
       <c r="BU77" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="BV77" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="BW77" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BX77" t="n">
-        <v>628.3185307179582</v>
+        <v>9871461598.082613</v>
       </c>
       <c r="BY77" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="BZ77" t="n">
-        <v>0</v>
+        <v>-2171721.551578179</v>
       </c>
       <c r="CA77" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="CB77" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="CC77" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CD77" t="n">
         <v>0</v>
@@ -36148,31 +36148,31 @@
         <v>0</v>
       </c>
       <c r="BU78" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="BV78" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="BW78" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="BX78" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="BY78" t="n">
-        <v>1570796.420145074</v>
+        <v>981505324.6092554</v>
       </c>
       <c r="BZ78" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="CA78" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="CB78" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="CC78" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="CD78" t="n">
         <v>0</v>
@@ -36609,31 +36609,31 @@
         <v>0</v>
       </c>
       <c r="BU79" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BV79" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="BW79" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="BX79" t="n">
-        <v>0</v>
+        <v>-2171721.551578178</v>
       </c>
       <c r="BY79" t="n">
         <v>0</v>
       </c>
       <c r="BZ79" t="n">
-        <v>209.4395111967571</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="CA79" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CB79" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="CC79" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="CD79" t="n">
         <v>0</v>
@@ -37079,31 +37079,31 @@
         <v>0</v>
       </c>
       <c r="BX80" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="BY80" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="BZ80" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CA80" t="n">
-        <v>628.3185307179582</v>
+        <v>9871461598.082613</v>
       </c>
       <c r="CB80" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="CC80" t="n">
-        <v>0</v>
+        <v>-2171721.551578179</v>
       </c>
       <c r="CD80" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="CE80" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="CF80" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CG80" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="BX81" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="BY81" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="BZ81" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="CA81" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="CB81" t="n">
-        <v>1570796.420145074</v>
+        <v>981505324.6092554</v>
       </c>
       <c r="CC81" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="CD81" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="CE81" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="CF81" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="CG81" t="n">
         <v>0</v>
@@ -38001,31 +38001,31 @@
         <v>0</v>
       </c>
       <c r="BX82" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="BY82" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="BZ82" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="CA82" t="n">
-        <v>0</v>
+        <v>-2171721.551578178</v>
       </c>
       <c r="CB82" t="n">
         <v>0</v>
       </c>
       <c r="CC82" t="n">
-        <v>209.4395111967571</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="CD82" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CE82" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="CF82" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="CG82" t="n">
         <v>0</v>
@@ -38471,31 +38471,31 @@
         <v>0</v>
       </c>
       <c r="CA83" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="CB83" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="CC83" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CD83" t="n">
-        <v>628.3185307179582</v>
+        <v>9871461598.082613</v>
       </c>
       <c r="CE83" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="CF83" t="n">
-        <v>0</v>
+        <v>-2171721.551578179</v>
       </c>
       <c r="CG83" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="CH83" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="CI83" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CJ83" t="n">
         <v>0</v>
@@ -38932,31 +38932,31 @@
         <v>0</v>
       </c>
       <c r="CA84" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="CB84" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="CC84" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="CD84" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="CE84" t="n">
-        <v>1570796.420145074</v>
+        <v>981505324.6092554</v>
       </c>
       <c r="CF84" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="CG84" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="CH84" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="CI84" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="CJ84" t="n">
         <v>0</v>
@@ -39393,31 +39393,31 @@
         <v>0</v>
       </c>
       <c r="CA85" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CB85" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="CC85" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="CD85" t="n">
-        <v>0</v>
+        <v>-2171721.551578178</v>
       </c>
       <c r="CE85" t="n">
         <v>0</v>
       </c>
       <c r="CF85" t="n">
-        <v>209.4395111967571</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="CG85" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CH85" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="CI85" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="CJ85" t="n">
         <v>0</v>
@@ -39863,31 +39863,31 @@
         <v>0</v>
       </c>
       <c r="CD86" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="CE86" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="CF86" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CG86" t="n">
-        <v>628.3185307179599</v>
+        <v>9871461598.082638</v>
       </c>
       <c r="CH86" t="n">
-        <v>0</v>
+        <v>1.788139343261719e-07</v>
       </c>
       <c r="CI86" t="n">
-        <v>0</v>
+        <v>-2171721.551578172</v>
       </c>
       <c r="CJ86" t="n">
-        <v>-314.1592653589808</v>
+        <v>-4935730799.041332</v>
       </c>
       <c r="CK86" t="n">
-        <v>0</v>
+        <v>-325758232.7367264</v>
       </c>
       <c r="CL86" t="n">
-        <v>0</v>
+        <v>1085860.775789083</v>
       </c>
       <c r="CM86" t="n">
         <v>0</v>
@@ -40324,31 +40324,31 @@
         <v>0</v>
       </c>
       <c r="CD87" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="CE87" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="CF87" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="CG87" t="n">
-        <v>0</v>
+        <v>1.788139343261719e-07</v>
       </c>
       <c r="CH87" t="n">
-        <v>1570796.420145087</v>
+        <v>981505324.609257</v>
       </c>
       <c r="CI87" t="n">
-        <v>8.549250196665525e-11</v>
+        <v>1.257285475730896e-08</v>
       </c>
       <c r="CJ87" t="n">
-        <v>0</v>
+        <v>325758232.7367263</v>
       </c>
       <c r="CK87" t="n">
-        <v>-785398.1472406968</v>
+        <v>-95894198.3813265</v>
       </c>
       <c r="CL87" t="n">
-        <v>7853.981556182737</v>
+        <v>1485419.935712011</v>
       </c>
       <c r="CM87" t="n">
         <v>0</v>
@@ -40785,31 +40785,31 @@
         <v>0</v>
       </c>
       <c r="CD88" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CE88" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="CF88" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="CG88" t="n">
-        <v>0</v>
+        <v>-2171721.551578172</v>
       </c>
       <c r="CH88" t="n">
-        <v>8.640199666842818e-11</v>
+        <v>1.30385160446167e-08</v>
       </c>
       <c r="CI88" t="n">
-        <v>209.4395111967577</v>
+        <v>58664.68606864597</v>
       </c>
       <c r="CJ88" t="n">
-        <v>0</v>
+        <v>1085860.775789083</v>
       </c>
       <c r="CK88" t="n">
-        <v>-7853.981556182737</v>
+        <v>-1485419.93571201</v>
       </c>
       <c r="CL88" t="n">
-        <v>52.35987720079097</v>
+        <v>10905.614717892</v>
       </c>
       <c r="CM88" t="n">
         <v>0</v>
@@ -41255,31 +41255,31 @@
         <v>0</v>
       </c>
       <c r="CG89" t="n">
-        <v>-314.1592653589808</v>
+        <v>-4935730799.041332</v>
       </c>
       <c r="CH89" t="n">
-        <v>0</v>
+        <v>325758232.7367263</v>
       </c>
       <c r="CI89" t="n">
-        <v>0</v>
+        <v>1085860.775789083</v>
       </c>
       <c r="CJ89" t="n">
-        <v>628.3185307179599</v>
+        <v>9871461598.082638</v>
       </c>
       <c r="CK89" t="n">
-        <v>0</v>
+        <v>-5.960464477539062e-08</v>
       </c>
       <c r="CL89" t="n">
-        <v>0</v>
+        <v>-2171721.551578172</v>
       </c>
       <c r="CM89" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="CN89" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="CO89" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CP89" t="n">
         <v>0</v>
@@ -41716,31 +41716,31 @@
         <v>0</v>
       </c>
       <c r="CG90" t="n">
-        <v>0</v>
+        <v>-325758232.7367264</v>
       </c>
       <c r="CH90" t="n">
-        <v>-785398.1472406968</v>
+        <v>-95894198.38132648</v>
       </c>
       <c r="CI90" t="n">
-        <v>-7853.981556182736</v>
+        <v>-1485419.93571201</v>
       </c>
       <c r="CJ90" t="n">
-        <v>0</v>
+        <v>-5.960464477539062e-08</v>
       </c>
       <c r="CK90" t="n">
-        <v>1570796.420145087</v>
+        <v>981505324.609257</v>
       </c>
       <c r="CL90" t="n">
-        <v>-8.640199666842818e-11</v>
+        <v>-1.30385160446167e-08</v>
       </c>
       <c r="CM90" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="CN90" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="CO90" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="CP90" t="n">
         <v>0</v>
@@ -42177,31 +42177,31 @@
         <v>0</v>
       </c>
       <c r="CG91" t="n">
-        <v>0</v>
+        <v>1085860.775789083</v>
       </c>
       <c r="CH91" t="n">
-        <v>7853.981556182737</v>
+        <v>1485419.935712011</v>
       </c>
       <c r="CI91" t="n">
-        <v>52.35987720079097</v>
+        <v>10905.614717892</v>
       </c>
       <c r="CJ91" t="n">
-        <v>0</v>
+        <v>-2171721.551578172</v>
       </c>
       <c r="CK91" t="n">
-        <v>-8.640199666842818e-11</v>
+        <v>-1.30385160446167e-08</v>
       </c>
       <c r="CL91" t="n">
-        <v>209.4395111967577</v>
+        <v>58664.68606864597</v>
       </c>
       <c r="CM91" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CN91" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="CO91" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="CP91" t="n">
         <v>0</v>
@@ -42647,31 +42647,31 @@
         <v>0</v>
       </c>
       <c r="CJ92" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="CK92" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="CL92" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CM92" t="n">
-        <v>628.3185307179582</v>
+        <v>9871461598.082613</v>
       </c>
       <c r="CN92" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="CO92" t="n">
-        <v>0</v>
+        <v>-2171721.551578179</v>
       </c>
       <c r="CP92" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="CQ92" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="CR92" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CS92" t="n">
         <v>0</v>
@@ -43108,31 +43108,31 @@
         <v>0</v>
       </c>
       <c r="CJ93" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="CK93" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="CL93" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="CM93" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="CN93" t="n">
-        <v>1570796.420145074</v>
+        <v>981505324.6092554</v>
       </c>
       <c r="CO93" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="CP93" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="CQ93" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="CR93" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="CS93" t="n">
         <v>0</v>
@@ -43569,31 +43569,31 @@
         <v>0</v>
       </c>
       <c r="CJ94" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CK94" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="CL94" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="CM94" t="n">
-        <v>0</v>
+        <v>-2171721.551578178</v>
       </c>
       <c r="CN94" t="n">
         <v>0</v>
       </c>
       <c r="CO94" t="n">
-        <v>209.4395111967571</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="CP94" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CQ94" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="CR94" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="CS94" t="n">
         <v>0</v>
@@ -44039,31 +44039,31 @@
         <v>0</v>
       </c>
       <c r="CM95" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="CN95" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="CO95" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CP95" t="n">
-        <v>628.3185307179582</v>
+        <v>9871461598.082613</v>
       </c>
       <c r="CQ95" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="CR95" t="n">
-        <v>0</v>
+        <v>-2171721.551578179</v>
       </c>
       <c r="CS95" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="CT95" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="CU95" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CV95" t="n">
         <v>0</v>
@@ -44500,31 +44500,31 @@
         <v>0</v>
       </c>
       <c r="CM96" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="CN96" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="CO96" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="CP96" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="CQ96" t="n">
-        <v>1570796.420145074</v>
+        <v>981505324.6092554</v>
       </c>
       <c r="CR96" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="CS96" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="CT96" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="CU96" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="CV96" t="n">
         <v>0</v>
@@ -44961,31 +44961,31 @@
         <v>0</v>
       </c>
       <c r="CM97" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CN97" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="CO97" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="CP97" t="n">
-        <v>0</v>
+        <v>-2171721.551578178</v>
       </c>
       <c r="CQ97" t="n">
         <v>0</v>
       </c>
       <c r="CR97" t="n">
-        <v>209.4395111967571</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="CS97" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CT97" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="CU97" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="CV97" t="n">
         <v>0</v>
@@ -45431,31 +45431,31 @@
         <v>0</v>
       </c>
       <c r="CP98" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="CQ98" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="CR98" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CS98" t="n">
-        <v>628.3185307179582</v>
+        <v>9871461598.082613</v>
       </c>
       <c r="CT98" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="CU98" t="n">
-        <v>0</v>
+        <v>-2171721.551578179</v>
       </c>
       <c r="CV98" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="CW98" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="CX98" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CY98" t="n">
         <v>0</v>
@@ -45892,31 +45892,31 @@
         <v>0</v>
       </c>
       <c r="CP99" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="CQ99" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="CR99" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="CS99" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="CT99" t="n">
-        <v>1570796.420145074</v>
+        <v>981505324.6092554</v>
       </c>
       <c r="CU99" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="CV99" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="CW99" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="CX99" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="CY99" t="n">
         <v>0</v>
@@ -46353,31 +46353,31 @@
         <v>0</v>
       </c>
       <c r="CP100" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CQ100" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="CR100" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="CS100" t="n">
-        <v>0</v>
+        <v>-2171721.551578178</v>
       </c>
       <c r="CT100" t="n">
         <v>0</v>
       </c>
       <c r="CU100" t="n">
-        <v>209.4395111967571</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="CV100" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CW100" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="CX100" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="CY100" t="n">
         <v>0</v>
@@ -46823,31 +46823,31 @@
         <v>0</v>
       </c>
       <c r="CS101" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="CT101" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="CU101" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CV101" t="n">
-        <v>628.3185307179582</v>
+        <v>9871461598.082613</v>
       </c>
       <c r="CW101" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="CX101" t="n">
-        <v>0</v>
+        <v>-2171721.551578179</v>
       </c>
       <c r="CY101" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="CZ101" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="DA101" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DB101" t="n">
         <v>0</v>
@@ -47284,31 +47284,31 @@
         <v>0</v>
       </c>
       <c r="CS102" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="CT102" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="CU102" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="CV102" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="CW102" t="n">
-        <v>1570796.420145074</v>
+        <v>981505324.6092554</v>
       </c>
       <c r="CX102" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="CY102" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="CZ102" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="DA102" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="DB102" t="n">
         <v>0</v>
@@ -47745,31 +47745,31 @@
         <v>0</v>
       </c>
       <c r="CS103" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CT103" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="CU103" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="CV103" t="n">
-        <v>0</v>
+        <v>-2171721.551578178</v>
       </c>
       <c r="CW103" t="n">
         <v>0</v>
       </c>
       <c r="CX103" t="n">
-        <v>209.4395111967571</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="CY103" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CZ103" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="DA103" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="DB103" t="n">
         <v>0</v>
@@ -48215,31 +48215,31 @@
         <v>0</v>
       </c>
       <c r="CV104" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="CW104" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="CX104" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CY104" t="n">
-        <v>628.3185307179582</v>
+        <v>9871461598.082613</v>
       </c>
       <c r="CZ104" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="DA104" t="n">
-        <v>0</v>
+        <v>-2171721.551578179</v>
       </c>
       <c r="DB104" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="DC104" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="DD104" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DE104" t="n">
         <v>0</v>
@@ -48676,31 +48676,31 @@
         <v>0</v>
       </c>
       <c r="CV105" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="CW105" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="CX105" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="CY105" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="CZ105" t="n">
-        <v>1570796.420145074</v>
+        <v>981505324.6092554</v>
       </c>
       <c r="DA105" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="DB105" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="DC105" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="DD105" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="DE105" t="n">
         <v>0</v>
@@ -49137,31 +49137,31 @@
         <v>0</v>
       </c>
       <c r="CV106" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CW106" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="CX106" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="CY106" t="n">
-        <v>0</v>
+        <v>-2171721.551578178</v>
       </c>
       <c r="CZ106" t="n">
         <v>0</v>
       </c>
       <c r="DA106" t="n">
-        <v>209.4395111967571</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="DB106" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DC106" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="DD106" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="DE106" t="n">
         <v>0</v>
@@ -49607,31 +49607,31 @@
         <v>0</v>
       </c>
       <c r="CY107" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="CZ107" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="DA107" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DB107" t="n">
-        <v>628.3185307179599</v>
+        <v>9871461598.082638</v>
       </c>
       <c r="DC107" t="n">
-        <v>0</v>
+        <v>1.788139343261719e-07</v>
       </c>
       <c r="DD107" t="n">
-        <v>0</v>
+        <v>-2171721.551578172</v>
       </c>
       <c r="DE107" t="n">
-        <v>-314.1592653589808</v>
+        <v>-4935730799.041332</v>
       </c>
       <c r="DF107" t="n">
-        <v>0</v>
+        <v>-325758232.7367264</v>
       </c>
       <c r="DG107" t="n">
-        <v>0</v>
+        <v>1085860.775789083</v>
       </c>
       <c r="DH107" t="n">
         <v>0</v>
@@ -50068,31 +50068,31 @@
         <v>0</v>
       </c>
       <c r="CY108" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="CZ108" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="DA108" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="DB108" t="n">
-        <v>0</v>
+        <v>1.788139343261719e-07</v>
       </c>
       <c r="DC108" t="n">
-        <v>1570796.420145087</v>
+        <v>981505324.609257</v>
       </c>
       <c r="DD108" t="n">
-        <v>8.549250196665525e-11</v>
+        <v>1.257285475730896e-08</v>
       </c>
       <c r="DE108" t="n">
-        <v>0</v>
+        <v>325758232.7367263</v>
       </c>
       <c r="DF108" t="n">
-        <v>-785398.1472406968</v>
+        <v>-95894198.3813265</v>
       </c>
       <c r="DG108" t="n">
-        <v>7853.981556182737</v>
+        <v>1485419.935712011</v>
       </c>
       <c r="DH108" t="n">
         <v>0</v>
@@ -50529,31 +50529,31 @@
         <v>0</v>
       </c>
       <c r="CY109" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="CZ109" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="DA109" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="DB109" t="n">
-        <v>0</v>
+        <v>-2171721.551578172</v>
       </c>
       <c r="DC109" t="n">
-        <v>8.640199666842818e-11</v>
+        <v>1.30385160446167e-08</v>
       </c>
       <c r="DD109" t="n">
-        <v>209.4395111967577</v>
+        <v>58664.68606864597</v>
       </c>
       <c r="DE109" t="n">
-        <v>0</v>
+        <v>1085860.775789083</v>
       </c>
       <c r="DF109" t="n">
-        <v>-7853.981556182737</v>
+        <v>-1485419.93571201</v>
       </c>
       <c r="DG109" t="n">
-        <v>52.35987720079097</v>
+        <v>10905.614717892</v>
       </c>
       <c r="DH109" t="n">
         <v>0</v>
@@ -50999,31 +50999,31 @@
         <v>0</v>
       </c>
       <c r="DB110" t="n">
-        <v>-314.1592653589808</v>
+        <v>-4935730799.041332</v>
       </c>
       <c r="DC110" t="n">
-        <v>0</v>
+        <v>325758232.7367263</v>
       </c>
       <c r="DD110" t="n">
-        <v>0</v>
+        <v>1085860.775789083</v>
       </c>
       <c r="DE110" t="n">
-        <v>628.3185307179599</v>
+        <v>9871461598.082638</v>
       </c>
       <c r="DF110" t="n">
-        <v>0</v>
+        <v>-5.960464477539062e-08</v>
       </c>
       <c r="DG110" t="n">
-        <v>0</v>
+        <v>-2171721.551578172</v>
       </c>
       <c r="DH110" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="DI110" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="DJ110" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DK110" t="n">
         <v>0</v>
@@ -51460,31 +51460,31 @@
         <v>0</v>
       </c>
       <c r="DB111" t="n">
-        <v>0</v>
+        <v>-325758232.7367264</v>
       </c>
       <c r="DC111" t="n">
-        <v>-785398.1472406968</v>
+        <v>-95894198.38132648</v>
       </c>
       <c r="DD111" t="n">
-        <v>-7853.981556182736</v>
+        <v>-1485419.93571201</v>
       </c>
       <c r="DE111" t="n">
-        <v>0</v>
+        <v>-5.960464477539062e-08</v>
       </c>
       <c r="DF111" t="n">
-        <v>1570796.420145087</v>
+        <v>981505324.609257</v>
       </c>
       <c r="DG111" t="n">
-        <v>-8.640199666842818e-11</v>
+        <v>-1.30385160446167e-08</v>
       </c>
       <c r="DH111" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="DI111" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="DJ111" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="DK111" t="n">
         <v>0</v>
@@ -51921,31 +51921,31 @@
         <v>0</v>
       </c>
       <c r="DB112" t="n">
-        <v>0</v>
+        <v>1085860.775789083</v>
       </c>
       <c r="DC112" t="n">
-        <v>7853.981556182737</v>
+        <v>1485419.935712011</v>
       </c>
       <c r="DD112" t="n">
-        <v>52.35987720079097</v>
+        <v>10905.614717892</v>
       </c>
       <c r="DE112" t="n">
-        <v>0</v>
+        <v>-2171721.551578172</v>
       </c>
       <c r="DF112" t="n">
-        <v>-8.640199666842818e-11</v>
+        <v>-1.30385160446167e-08</v>
       </c>
       <c r="DG112" t="n">
-        <v>209.4395111967577</v>
+        <v>58664.68606864597</v>
       </c>
       <c r="DH112" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DI112" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="DJ112" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="DK112" t="n">
         <v>0</v>
@@ -52391,31 +52391,31 @@
         <v>0</v>
       </c>
       <c r="DE113" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="DF113" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="DG113" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DH113" t="n">
-        <v>628.3185307179582</v>
+        <v>9871461598.082613</v>
       </c>
       <c r="DI113" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="DJ113" t="n">
-        <v>0</v>
+        <v>-2171721.551578179</v>
       </c>
       <c r="DK113" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="DL113" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="DM113" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DN113" t="n">
         <v>0</v>
@@ -52852,31 +52852,31 @@
         <v>0</v>
       </c>
       <c r="DE114" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="DF114" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="DG114" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="DH114" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="DI114" t="n">
-        <v>1570796.420145074</v>
+        <v>981505324.6092554</v>
       </c>
       <c r="DJ114" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="DK114" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="DL114" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="DM114" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="DN114" t="n">
         <v>0</v>
@@ -53313,31 +53313,31 @@
         <v>0</v>
       </c>
       <c r="DE115" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DF115" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="DG115" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="DH115" t="n">
-        <v>0</v>
+        <v>-2171721.551578178</v>
       </c>
       <c r="DI115" t="n">
         <v>0</v>
       </c>
       <c r="DJ115" t="n">
-        <v>209.4395111967571</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="DK115" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DL115" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="DM115" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="DN115" t="n">
         <v>0</v>
@@ -53783,31 +53783,31 @@
         <v>0</v>
       </c>
       <c r="DH116" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="DI116" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="DJ116" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DK116" t="n">
-        <v>628.3185307179582</v>
+        <v>9871461598.082613</v>
       </c>
       <c r="DL116" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="DM116" t="n">
-        <v>0</v>
+        <v>-2171721.551578179</v>
       </c>
       <c r="DN116" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="DO116" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="DP116" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DQ116" t="n">
         <v>0</v>
@@ -54244,31 +54244,31 @@
         <v>0</v>
       </c>
       <c r="DH117" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="DI117" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="DJ117" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="DK117" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="DL117" t="n">
-        <v>1570796.420145074</v>
+        <v>981505324.6092554</v>
       </c>
       <c r="DM117" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="DN117" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="DO117" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="DP117" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="DQ117" t="n">
         <v>0</v>
@@ -54705,31 +54705,31 @@
         <v>0</v>
       </c>
       <c r="DH118" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DI118" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="DJ118" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="DK118" t="n">
-        <v>0</v>
+        <v>-2171721.551578178</v>
       </c>
       <c r="DL118" t="n">
         <v>0</v>
       </c>
       <c r="DM118" t="n">
-        <v>209.4395111967571</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="DN118" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DO118" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="DP118" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="DQ118" t="n">
         <v>0</v>
@@ -55175,31 +55175,31 @@
         <v>0</v>
       </c>
       <c r="DK119" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="DL119" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="DM119" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DN119" t="n">
-        <v>628.3185307179582</v>
+        <v>9871461598.082613</v>
       </c>
       <c r="DO119" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="DP119" t="n">
-        <v>0</v>
+        <v>-2171721.551578179</v>
       </c>
       <c r="DQ119" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="DR119" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="DS119" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DT119" t="n">
         <v>0</v>
@@ -55636,31 +55636,31 @@
         <v>0</v>
       </c>
       <c r="DK120" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="DL120" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="DM120" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="DN120" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="DO120" t="n">
-        <v>1570796.420145074</v>
+        <v>981505324.6092554</v>
       </c>
       <c r="DP120" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="DQ120" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="DR120" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="DS120" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="DT120" t="n">
         <v>0</v>
@@ -56097,31 +56097,31 @@
         <v>0</v>
       </c>
       <c r="DK121" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DL121" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="DM121" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="DN121" t="n">
-        <v>0</v>
+        <v>-2171721.551578178</v>
       </c>
       <c r="DO121" t="n">
         <v>0</v>
       </c>
       <c r="DP121" t="n">
-        <v>209.4395111967571</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="DQ121" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DR121" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="DS121" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="DT121" t="n">
         <v>0</v>
@@ -56567,31 +56567,31 @@
         <v>0</v>
       </c>
       <c r="DN122" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="DO122" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="DP122" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DQ122" t="n">
-        <v>628.3185307179582</v>
+        <v>9871461598.082613</v>
       </c>
       <c r="DR122" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="DS122" t="n">
-        <v>0</v>
+        <v>-2171721.551578179</v>
       </c>
       <c r="DT122" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="DU122" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="DV122" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DW122" t="n">
         <v>0</v>
@@ -57028,31 +57028,31 @@
         <v>0</v>
       </c>
       <c r="DN123" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="DO123" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="DP123" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="DQ123" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="DR123" t="n">
-        <v>1570796.420145074</v>
+        <v>981505324.6092554</v>
       </c>
       <c r="DS123" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="DT123" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="DU123" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="DV123" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="DW123" t="n">
         <v>0</v>
@@ -57489,31 +57489,31 @@
         <v>0</v>
       </c>
       <c r="DN124" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DO124" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="DP124" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="DQ124" t="n">
-        <v>0</v>
+        <v>-2171721.551578178</v>
       </c>
       <c r="DR124" t="n">
         <v>0</v>
       </c>
       <c r="DS124" t="n">
-        <v>209.4395111967571</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="DT124" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DU124" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="DV124" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="DW124" t="n">
         <v>0</v>
@@ -57959,31 +57959,31 @@
         <v>0</v>
       </c>
       <c r="DQ125" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="DR125" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="DS125" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DT125" t="n">
-        <v>628.3185307179599</v>
+        <v>9871461598.082638</v>
       </c>
       <c r="DU125" t="n">
-        <v>0</v>
+        <v>1.788139343261719e-07</v>
       </c>
       <c r="DV125" t="n">
-        <v>0</v>
+        <v>-2171721.551578172</v>
       </c>
       <c r="DW125" t="n">
-        <v>-314.1592653589808</v>
+        <v>-4935730799.041332</v>
       </c>
       <c r="DX125" t="n">
-        <v>0</v>
+        <v>-325758232.7367264</v>
       </c>
       <c r="DY125" t="n">
-        <v>0</v>
+        <v>1085860.775789083</v>
       </c>
       <c r="DZ125" t="n">
         <v>0</v>
@@ -58420,31 +58420,31 @@
         <v>0</v>
       </c>
       <c r="DQ126" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="DR126" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="DS126" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="DT126" t="n">
-        <v>0</v>
+        <v>1.788139343261719e-07</v>
       </c>
       <c r="DU126" t="n">
-        <v>1570796.420145087</v>
+        <v>981505324.609257</v>
       </c>
       <c r="DV126" t="n">
-        <v>8.549250196665525e-11</v>
+        <v>1.257285475730896e-08</v>
       </c>
       <c r="DW126" t="n">
-        <v>0</v>
+        <v>325758232.7367263</v>
       </c>
       <c r="DX126" t="n">
-        <v>-785398.1472406968</v>
+        <v>-95894198.3813265</v>
       </c>
       <c r="DY126" t="n">
-        <v>7853.981556182737</v>
+        <v>1485419.935712011</v>
       </c>
       <c r="DZ126" t="n">
         <v>0</v>
@@ -58881,31 +58881,31 @@
         <v>0</v>
       </c>
       <c r="DQ127" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DR127" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="DS127" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="DT127" t="n">
-        <v>0</v>
+        <v>-2171721.551578172</v>
       </c>
       <c r="DU127" t="n">
-        <v>8.640199666842818e-11</v>
+        <v>1.30385160446167e-08</v>
       </c>
       <c r="DV127" t="n">
-        <v>209.4395111967577</v>
+        <v>58664.68606864597</v>
       </c>
       <c r="DW127" t="n">
-        <v>0</v>
+        <v>1085860.775789083</v>
       </c>
       <c r="DX127" t="n">
-        <v>-7853.981556182737</v>
+        <v>-1485419.93571201</v>
       </c>
       <c r="DY127" t="n">
-        <v>52.35987720079097</v>
+        <v>10905.614717892</v>
       </c>
       <c r="DZ127" t="n">
         <v>0</v>
@@ -59351,31 +59351,31 @@
         <v>0</v>
       </c>
       <c r="DT128" t="n">
-        <v>-314.1592653589808</v>
+        <v>-4935730799.041332</v>
       </c>
       <c r="DU128" t="n">
-        <v>0</v>
+        <v>325758232.7367263</v>
       </c>
       <c r="DV128" t="n">
-        <v>0</v>
+        <v>1085860.775789083</v>
       </c>
       <c r="DW128" t="n">
-        <v>628.3185307179599</v>
+        <v>9871461598.082638</v>
       </c>
       <c r="DX128" t="n">
-        <v>0</v>
+        <v>-5.960464477539062e-08</v>
       </c>
       <c r="DY128" t="n">
-        <v>0</v>
+        <v>-2171721.551578172</v>
       </c>
       <c r="DZ128" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="EA128" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="EB128" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="EC128" t="n">
         <v>0</v>
@@ -59812,31 +59812,31 @@
         <v>0</v>
       </c>
       <c r="DT129" t="n">
-        <v>0</v>
+        <v>-325758232.7367264</v>
       </c>
       <c r="DU129" t="n">
-        <v>-785398.1472406968</v>
+        <v>-95894198.38132648</v>
       </c>
       <c r="DV129" t="n">
-        <v>-7853.981556182736</v>
+        <v>-1485419.93571201</v>
       </c>
       <c r="DW129" t="n">
-        <v>0</v>
+        <v>-5.960464477539062e-08</v>
       </c>
       <c r="DX129" t="n">
-        <v>1570796.420145087</v>
+        <v>981505324.609257</v>
       </c>
       <c r="DY129" t="n">
-        <v>-8.640199666842818e-11</v>
+        <v>-1.30385160446167e-08</v>
       </c>
       <c r="DZ129" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="EA129" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="EB129" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="EC129" t="n">
         <v>0</v>
@@ -60273,31 +60273,31 @@
         <v>0</v>
       </c>
       <c r="DT130" t="n">
-        <v>0</v>
+        <v>1085860.775789083</v>
       </c>
       <c r="DU130" t="n">
-        <v>7853.981556182737</v>
+        <v>1485419.935712011</v>
       </c>
       <c r="DV130" t="n">
-        <v>52.35987720079097</v>
+        <v>10905.614717892</v>
       </c>
       <c r="DW130" t="n">
-        <v>0</v>
+        <v>-2171721.551578172</v>
       </c>
       <c r="DX130" t="n">
-        <v>-8.640199666842818e-11</v>
+        <v>-1.30385160446167e-08</v>
       </c>
       <c r="DY130" t="n">
-        <v>209.4395111967577</v>
+        <v>58664.68606864597</v>
       </c>
       <c r="DZ130" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="EA130" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="EB130" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="EC130" t="n">
         <v>0</v>
@@ -60743,31 +60743,31 @@
         <v>0</v>
       </c>
       <c r="DW131" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="DX131" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="DY131" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DZ131" t="n">
-        <v>628.3185307179582</v>
+        <v>9871461598.082613</v>
       </c>
       <c r="EA131" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="EB131" t="n">
-        <v>0</v>
+        <v>-2171721.551578179</v>
       </c>
       <c r="EC131" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="ED131" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="EE131" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="EF131" t="n">
         <v>0</v>
@@ -61204,31 +61204,31 @@
         <v>0</v>
       </c>
       <c r="DW132" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="DX132" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="DY132" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="DZ132" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="EA132" t="n">
-        <v>1570796.420145074</v>
+        <v>981505324.6092554</v>
       </c>
       <c r="EB132" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="EC132" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="ED132" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="EE132" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="EF132" t="n">
         <v>0</v>
@@ -61665,31 +61665,31 @@
         <v>0</v>
       </c>
       <c r="DW133" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="DX133" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="DY133" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="DZ133" t="n">
-        <v>0</v>
+        <v>-2171721.551578178</v>
       </c>
       <c r="EA133" t="n">
         <v>0</v>
       </c>
       <c r="EB133" t="n">
-        <v>209.4395111967571</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="EC133" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="ED133" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="EE133" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="EF133" t="n">
         <v>0</v>
@@ -62135,31 +62135,31 @@
         <v>0</v>
       </c>
       <c r="DZ134" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="EA134" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="EB134" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="EC134" t="n">
-        <v>628.3185307179582</v>
+        <v>9871461598.082613</v>
       </c>
       <c r="ED134" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="EE134" t="n">
-        <v>0</v>
+        <v>-2171721.551578179</v>
       </c>
       <c r="EF134" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="EG134" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="EH134" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="EI134" t="n">
         <v>0</v>
@@ -62596,31 +62596,31 @@
         <v>0</v>
       </c>
       <c r="DZ135" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="EA135" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="EB135" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="EC135" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="ED135" t="n">
-        <v>1570796.420145074</v>
+        <v>981505324.6092554</v>
       </c>
       <c r="EE135" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="EF135" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="EG135" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="EH135" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="EI135" t="n">
         <v>0</v>
@@ -63057,31 +63057,31 @@
         <v>0</v>
       </c>
       <c r="DZ136" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="EA136" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="EB136" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="EC136" t="n">
-        <v>0</v>
+        <v>-2171721.551578178</v>
       </c>
       <c r="ED136" t="n">
         <v>0</v>
       </c>
       <c r="EE136" t="n">
-        <v>209.4395111967571</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="EF136" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="EG136" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="EH136" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="EI136" t="n">
         <v>0</v>
@@ -63527,31 +63527,31 @@
         <v>0</v>
       </c>
       <c r="EC137" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="ED137" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="EE137" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="EF137" t="n">
-        <v>628.3185307179582</v>
+        <v>9871461598.082613</v>
       </c>
       <c r="EG137" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="EH137" t="n">
-        <v>0</v>
+        <v>-2171721.551578179</v>
       </c>
       <c r="EI137" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="EJ137" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="EK137" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="EL137" t="n">
         <v>0</v>
@@ -63988,31 +63988,31 @@
         <v>0</v>
       </c>
       <c r="EC138" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="ED138" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="EE138" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="EF138" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="EG138" t="n">
-        <v>1570796.420145074</v>
+        <v>981505324.6092554</v>
       </c>
       <c r="EH138" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="EI138" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="EJ138" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="EK138" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="EL138" t="n">
         <v>0</v>
@@ -64449,31 +64449,31 @@
         <v>0</v>
       </c>
       <c r="EC139" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="ED139" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="EE139" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="EF139" t="n">
-        <v>0</v>
+        <v>-2171721.551578178</v>
       </c>
       <c r="EG139" t="n">
         <v>0</v>
       </c>
       <c r="EH139" t="n">
-        <v>209.4395111967571</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="EI139" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="EJ139" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="EK139" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="EL139" t="n">
         <v>0</v>
@@ -64919,31 +64919,31 @@
         <v>0</v>
       </c>
       <c r="EF140" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="EG140" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="EH140" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="EI140" t="n">
-        <v>628.3185307179582</v>
+        <v>9871461598.082613</v>
       </c>
       <c r="EJ140" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="EK140" t="n">
-        <v>0</v>
+        <v>-2171721.551578179</v>
       </c>
       <c r="EL140" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="EM140" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="EN140" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="EO140" t="n">
         <v>0</v>
@@ -65380,31 +65380,31 @@
         <v>0</v>
       </c>
       <c r="EF141" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="EG141" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="EH141" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="EI141" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="EJ141" t="n">
-        <v>1570796.420145074</v>
+        <v>981505324.6092554</v>
       </c>
       <c r="EK141" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="EL141" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="EM141" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="EN141" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="EO141" t="n">
         <v>0</v>
@@ -65841,31 +65841,31 @@
         <v>0</v>
       </c>
       <c r="EF142" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="EG142" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="EH142" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="EI142" t="n">
-        <v>0</v>
+        <v>-2171721.551578178</v>
       </c>
       <c r="EJ142" t="n">
         <v>0</v>
       </c>
       <c r="EK142" t="n">
-        <v>209.4395111967571</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="EL142" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="EM142" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="EN142" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="EO142" t="n">
         <v>0</v>
@@ -66311,31 +66311,31 @@
         <v>0</v>
       </c>
       <c r="EI143" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="EJ143" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="EK143" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="EL143" t="n">
-        <v>628.3185307179599</v>
+        <v>9871461598.082638</v>
       </c>
       <c r="EM143" t="n">
-        <v>0</v>
+        <v>1.788139343261719e-07</v>
       </c>
       <c r="EN143" t="n">
-        <v>0</v>
+        <v>-2171721.551578172</v>
       </c>
       <c r="EO143" t="n">
-        <v>-314.1592653589808</v>
+        <v>-4935730799.041332</v>
       </c>
       <c r="EP143" t="n">
-        <v>0</v>
+        <v>-325758232.7367264</v>
       </c>
       <c r="EQ143" t="n">
-        <v>0</v>
+        <v>1085860.775789083</v>
       </c>
       <c r="ER143" t="n">
         <v>0</v>
@@ -66772,31 +66772,31 @@
         <v>0</v>
       </c>
       <c r="EI144" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="EJ144" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="EK144" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="EL144" t="n">
-        <v>0</v>
+        <v>1.788139343261719e-07</v>
       </c>
       <c r="EM144" t="n">
-        <v>1570796.420145087</v>
+        <v>981505324.609257</v>
       </c>
       <c r="EN144" t="n">
-        <v>8.549250196665525e-11</v>
+        <v>1.257285475730896e-08</v>
       </c>
       <c r="EO144" t="n">
-        <v>0</v>
+        <v>325758232.7367263</v>
       </c>
       <c r="EP144" t="n">
-        <v>-785398.1472406968</v>
+        <v>-95894198.3813265</v>
       </c>
       <c r="EQ144" t="n">
-        <v>7853.981556182737</v>
+        <v>1485419.935712011</v>
       </c>
       <c r="ER144" t="n">
         <v>0</v>
@@ -67233,31 +67233,31 @@
         <v>0</v>
       </c>
       <c r="EI145" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="EJ145" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="EK145" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="EL145" t="n">
-        <v>0</v>
+        <v>-2171721.551578172</v>
       </c>
       <c r="EM145" t="n">
-        <v>8.640199666842818e-11</v>
+        <v>1.30385160446167e-08</v>
       </c>
       <c r="EN145" t="n">
-        <v>209.4395111967577</v>
+        <v>58664.68606864597</v>
       </c>
       <c r="EO145" t="n">
-        <v>0</v>
+        <v>1085860.775789083</v>
       </c>
       <c r="EP145" t="n">
-        <v>-7853.981556182737</v>
+        <v>-1485419.93571201</v>
       </c>
       <c r="EQ145" t="n">
-        <v>52.35987720079097</v>
+        <v>10905.614717892</v>
       </c>
       <c r="ER145" t="n">
         <v>0</v>
@@ -67703,31 +67703,31 @@
         <v>0</v>
       </c>
       <c r="EL146" t="n">
-        <v>-314.1592653589808</v>
+        <v>-4935730799.041332</v>
       </c>
       <c r="EM146" t="n">
-        <v>0</v>
+        <v>325758232.7367263</v>
       </c>
       <c r="EN146" t="n">
-        <v>0</v>
+        <v>1085860.775789083</v>
       </c>
       <c r="EO146" t="n">
-        <v>628.3185307179599</v>
+        <v>9871461598.082638</v>
       </c>
       <c r="EP146" t="n">
-        <v>0</v>
+        <v>-5.960464477539062e-08</v>
       </c>
       <c r="EQ146" t="n">
-        <v>0</v>
+        <v>-2171721.551578172</v>
       </c>
       <c r="ER146" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="ES146" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="ET146" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="EU146" t="n">
         <v>0</v>
@@ -68164,31 +68164,31 @@
         <v>0</v>
       </c>
       <c r="EL147" t="n">
-        <v>0</v>
+        <v>-325758232.7367264</v>
       </c>
       <c r="EM147" t="n">
-        <v>-785398.1472406968</v>
+        <v>-95894198.38132648</v>
       </c>
       <c r="EN147" t="n">
-        <v>-7853.981556182736</v>
+        <v>-1485419.93571201</v>
       </c>
       <c r="EO147" t="n">
-        <v>0</v>
+        <v>-5.960464477539062e-08</v>
       </c>
       <c r="EP147" t="n">
-        <v>1570796.420145087</v>
+        <v>981505324.609257</v>
       </c>
       <c r="EQ147" t="n">
-        <v>-8.640199666842818e-11</v>
+        <v>-1.30385160446167e-08</v>
       </c>
       <c r="ER147" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="ES147" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="ET147" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="EU147" t="n">
         <v>0</v>
@@ -68625,31 +68625,31 @@
         <v>0</v>
       </c>
       <c r="EL148" t="n">
-        <v>0</v>
+        <v>1085860.775789083</v>
       </c>
       <c r="EM148" t="n">
-        <v>7853.981556182737</v>
+        <v>1485419.935712011</v>
       </c>
       <c r="EN148" t="n">
-        <v>52.35987720079097</v>
+        <v>10905.614717892</v>
       </c>
       <c r="EO148" t="n">
-        <v>0</v>
+        <v>-2171721.551578172</v>
       </c>
       <c r="EP148" t="n">
-        <v>-8.640199666842818e-11</v>
+        <v>-1.30385160446167e-08</v>
       </c>
       <c r="EQ148" t="n">
-        <v>209.4395111967577</v>
+        <v>58664.68606864597</v>
       </c>
       <c r="ER148" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="ES148" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="ET148" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="EU148" t="n">
         <v>0</v>
@@ -69095,31 +69095,31 @@
         <v>0</v>
       </c>
       <c r="EO149" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="EP149" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="EQ149" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="ER149" t="n">
-        <v>628.3185307179582</v>
+        <v>9871461598.082613</v>
       </c>
       <c r="ES149" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="ET149" t="n">
-        <v>0</v>
+        <v>-2171721.551578179</v>
       </c>
       <c r="EU149" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="EV149" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="EW149" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
     </row>
     <row r="150">
@@ -69556,31 +69556,31 @@
         <v>0</v>
       </c>
       <c r="EO150" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="EP150" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="EQ150" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="ER150" t="n">
-        <v>0</v>
+        <v>5.960464477539062e-08</v>
       </c>
       <c r="ES150" t="n">
-        <v>1570796.420145074</v>
+        <v>981505324.6092554</v>
       </c>
       <c r="ET150" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="EU150" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="EV150" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="EW150" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
     </row>
     <row r="151">
@@ -70017,31 +70017,31 @@
         <v>0</v>
       </c>
       <c r="EO151" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="EP151" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="EQ151" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="ER151" t="n">
-        <v>0</v>
+        <v>-2171721.551578178</v>
       </c>
       <c r="ES151" t="n">
         <v>0</v>
       </c>
       <c r="ET151" t="n">
-        <v>209.4395111967571</v>
+        <v>58664.68606864588</v>
       </c>
       <c r="EU151" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="EV151" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="EW151" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
     </row>
     <row r="152">
@@ -70487,22 +70487,22 @@
         <v>0</v>
       </c>
       <c r="ER152" t="n">
-        <v>-314.1592653589791</v>
+        <v>-4935730799.041306</v>
       </c>
       <c r="ES152" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="ET152" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="EU152" t="n">
-        <v>314.1592653589791</v>
+        <v>4935730799.041306</v>
       </c>
       <c r="EV152" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="EW152" t="n">
-        <v>0</v>
+        <v>-1085860.775789089</v>
       </c>
     </row>
     <row r="153">
@@ -70948,22 +70948,22 @@
         <v>0</v>
       </c>
       <c r="ER153" t="n">
-        <v>0</v>
+        <v>-325758232.7367265</v>
       </c>
       <c r="ES153" t="n">
-        <v>-785398.147240684</v>
+        <v>-95894198.38132265</v>
       </c>
       <c r="ET153" t="n">
-        <v>-7853.98155618265</v>
+        <v>-1485419.935711983</v>
       </c>
       <c r="EU153" t="n">
-        <v>0</v>
+        <v>325758232.7367265</v>
       </c>
       <c r="EV153" t="n">
-        <v>785398.2100725371</v>
+        <v>490752662.3046277</v>
       </c>
       <c r="EW153" t="n">
-        <v>-7853.981765622163</v>
+        <v>-2801614.815456335</v>
       </c>
     </row>
     <row r="154">
@@ -71409,22 +71409,22 @@
         <v>0</v>
       </c>
       <c r="ER154" t="n">
-        <v>0</v>
+        <v>1085860.775789089</v>
       </c>
       <c r="ES154" t="n">
-        <v>7853.981556182652</v>
+        <v>1485419.935711983</v>
       </c>
       <c r="ET154" t="n">
-        <v>52.35987720079068</v>
+        <v>10905.61471789189</v>
       </c>
       <c r="EU154" t="n">
-        <v>0</v>
+        <v>-1085860.775789089</v>
       </c>
       <c r="EV154" t="n">
-        <v>-7853.981765622162</v>
+        <v>-2801614.815456335</v>
       </c>
       <c r="EW154" t="n">
-        <v>104.7197555983786</v>
+        <v>29332.34303432294</v>
       </c>
     </row>
   </sheetData>
